--- a/qpcr_sac_final.xlsx
+++ b/qpcr_sac_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Target</t>
   </si>
@@ -23,15 +23,6 @@
     <t xml:space="preserve">DNA</t>
   </si>
   <si>
-    <t xml:space="preserve">SACLA-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14Q</t>
-  </si>
-  <si>
     <t xml:space="preserve">PHYTO</t>
   </si>
   <si>
@@ -41,12 +32,6 @@
     <t xml:space="preserve">16Q</t>
   </si>
   <si>
-    <t xml:space="preserve">17Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18Q</t>
-  </si>
-  <si>
     <t xml:space="preserve">SACLA-FE</t>
   </si>
   <si>
@@ -126,12 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">4Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51Q</t>
   </si>
   <si>
     <t xml:space="preserve">SACLA-FE-SEDATED</t>
@@ -497,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0535544460372869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0159381200393268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -519,15 +498,15 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0254284270099105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -535,43 +514,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.29123172722683</v>
+        <v>0.0137554773132513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0382988113891339</v>
+        <v>0.0206248255470673</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0254284270099105</v>
+        <v>0.0260782461320694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -579,43 +558,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0137554773132513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206248255470673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0260782461320694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -623,10 +602,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -634,10 +613,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -645,10 +624,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -656,10 +635,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -667,10 +646,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -681,10 +660,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.0626875837166012</v>
       </c>
     </row>
     <row r="20">
@@ -692,196 +671,130 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.0215679559631823</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.0901202032965381</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.242888185354084</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0626875837166012</v>
+        <v>0.0999184074294709</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0215679559631823</v>
+        <v>0.208832284759275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
       <c r="C25" t="n">
-        <v>0.0901202032965381</v>
+        <v>0.0394614546696041</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242888185354084</v>
+        <v>0.0864912885951352</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0999184074294709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208832284759275</v>
+        <v>0.0437305929997922</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0394614546696041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0864912885951352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0438051841136484</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.0575629589528249</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0437305929997922</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/qpcr_sac_final.xlsx
+++ b/qpcr_sac_final.xlsx
@@ -1,139 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niva365-my.sharepoint.com/personal/kristina_kvile_niva_no/Documents/SeedMoney-KVI-2021/CopeLinkExp2021/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_83B60CF0F269FF541FA387894E35B424AB1BE51C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHYTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACLA-FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACLA-FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACLA-FE-SEDATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O-L</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>PHYTO</t>
+  </si>
+  <si>
+    <t>15Q</t>
+  </si>
+  <si>
+    <t>16Q</t>
+  </si>
+  <si>
+    <t>SACLA-FE</t>
+  </si>
+  <si>
+    <t>19Q</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>1Q</t>
+  </si>
+  <si>
+    <t>20Q</t>
+  </si>
+  <si>
+    <t>21Q</t>
+  </si>
+  <si>
+    <t>22Q</t>
+  </si>
+  <si>
+    <t>23Q</t>
+  </si>
+  <si>
+    <t>24Q</t>
+  </si>
+  <si>
+    <t>27Q</t>
+  </si>
+  <si>
+    <t>28Q</t>
+  </si>
+  <si>
+    <t>2Q</t>
+  </si>
+  <si>
+    <t>31Q</t>
+  </si>
+  <si>
+    <t>32Q</t>
+  </si>
+  <si>
+    <t>3Q</t>
+  </si>
+  <si>
+    <t>40Q</t>
+  </si>
+  <si>
+    <t>41Q</t>
+  </si>
+  <si>
+    <t>42Q</t>
+  </si>
+  <si>
+    <t>43Q</t>
+  </si>
+  <si>
+    <t>SACLA-FR</t>
+  </si>
+  <si>
+    <t>44Q</t>
+  </si>
+  <si>
+    <t>45Q</t>
+  </si>
+  <si>
+    <t>46Q</t>
+  </si>
+  <si>
+    <t>47Q</t>
+  </si>
+  <si>
+    <t>48Q</t>
+  </si>
+  <si>
+    <t>49Q</t>
+  </si>
+  <si>
+    <t>4Q</t>
+  </si>
+  <si>
+    <t>SACLA-FE-SEDATED</t>
+  </si>
+  <si>
+    <t>52Q</t>
+  </si>
+  <si>
+    <t>BLANK</t>
+  </si>
+  <si>
+    <t>H2O-b</t>
+  </si>
+  <si>
+    <t>H2O-L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +176,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,14 +466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,338 +486,338 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0254284270099105</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>2.5428427009910499E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0137554773132513</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>1.37554773132513E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.0206248255470673</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>2.0624825547067301E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.0260782461320694</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>2.60782461320694E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.0626875837166012</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="C19">
+        <v>6.26875837166012E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.0215679559631823</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>2.1567955963182301E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.0901202032965381</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21">
+        <v>9.0120203296538096E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.242888185354084</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>0.24288818535408399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.0999184074294709</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23">
+        <v>9.9918407429470904E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.208832284759275</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24">
+        <v>0.20883228475927501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.0394614546696041</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>3.9461454669604101E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.0864912885951352</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26">
+        <v>8.6491288595135205E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.0437305929997922</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="C28">
+        <v>4.3730592999792199E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>